--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H2">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.384600333333333</v>
+        <v>5.325183666666667</v>
       </c>
       <c r="N2">
-        <v>4.153801</v>
+        <v>15.975551</v>
       </c>
       <c r="O2">
-        <v>0.01502900005108802</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="P2">
-        <v>0.01502900005108802</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="Q2">
-        <v>14.838951462579</v>
+        <v>152.1158186804941</v>
       </c>
       <c r="R2">
-        <v>133.550563163211</v>
+        <v>1369.042368124447</v>
       </c>
       <c r="S2">
-        <v>0.0001162116884760349</v>
+        <v>0.001261081992477472</v>
       </c>
       <c r="T2">
-        <v>0.000116211688476035</v>
+        <v>0.001261081992477472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H3">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>198.643795</v>
       </c>
       <c r="O3">
-        <v>0.7187194584438009</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="P3">
-        <v>0.718719458443801</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="Q3">
-        <v>709.6309217383051</v>
+        <v>1891.444213863124</v>
       </c>
       <c r="R3">
-        <v>6386.678295644746</v>
+        <v>17022.99792476812</v>
       </c>
       <c r="S3">
-        <v>0.005557495609981642</v>
+        <v>0.01568059297559668</v>
       </c>
       <c r="T3">
-        <v>0.005557495609981642</v>
+        <v>0.01568059297559668</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H4">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2096873333333333</v>
+        <v>16.93684666666667</v>
       </c>
       <c r="N4">
-        <v>0.629062</v>
+        <v>50.81054</v>
       </c>
       <c r="O4">
-        <v>0.002276029311499885</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="P4">
-        <v>0.002276029311499885</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="Q4">
-        <v>2.247247878498</v>
+        <v>483.8072182735978</v>
       </c>
       <c r="R4">
-        <v>20.225230906482</v>
+        <v>4354.264964462381</v>
       </c>
       <c r="S4">
-        <v>1.759938840982308E-05</v>
+        <v>0.004010894962061484</v>
       </c>
       <c r="T4">
-        <v>1.759938840982308E-05</v>
+        <v>0.004010894962061484</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,61 +729,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H5">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>23.82732666666667</v>
+        <v>0.08916600000000001</v>
       </c>
       <c r="N5">
-        <v>71.48198000000001</v>
+        <v>0.267498</v>
       </c>
       <c r="O5">
-        <v>0.2586312346383163</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="P5">
-        <v>0.2586312346383164</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="Q5">
-        <v>255.36072423042</v>
+        <v>2.547059395034001</v>
       </c>
       <c r="R5">
-        <v>2298.24651807378</v>
+        <v>22.923534555306</v>
       </c>
       <c r="S5">
-        <v>0.001999865085354393</v>
+        <v>2.111582322410907E-05</v>
       </c>
       <c r="T5">
-        <v>0.001999865085354393</v>
+        <v>2.111582322410907E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.717137</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H6">
-        <v>32.151411</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I6">
-        <v>0.007732496379066939</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J6">
-        <v>0.007732496379066939</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.04322599999999999</v>
+        <v>5.325183666666667</v>
       </c>
       <c r="N6">
-        <v>0.129678</v>
+        <v>15.975551</v>
       </c>
       <c r="O6">
-        <v>0.000469192113109172</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="P6">
-        <v>0.0004691921131091722</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="Q6">
-        <v>0.463258963962</v>
+        <v>6861.609011263983</v>
       </c>
       <c r="R6">
-        <v>4.169330675658</v>
+        <v>61754.48110137584</v>
       </c>
       <c r="S6">
-        <v>3.628026315703439E-06</v>
+        <v>0.0568846267178901</v>
       </c>
       <c r="T6">
-        <v>3.628026315703439E-06</v>
+        <v>0.05688462671789009</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.717137</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H7">
-        <v>32.151411</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I7">
-        <v>0.007732496379066939</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J7">
-        <v>0.007732496379066939</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4491346666666666</v>
+        <v>66.21459833333334</v>
       </c>
       <c r="N7">
-        <v>1.347404</v>
+        <v>198.643795</v>
       </c>
       <c r="O7">
-        <v>0.004875085442185651</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="P7">
-        <v>0.004875085442185652</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="Q7">
-        <v>4.813437754116</v>
+        <v>85318.87593759211</v>
       </c>
       <c r="R7">
-        <v>43.320939787044</v>
+        <v>767869.8834383289</v>
       </c>
       <c r="S7">
-        <v>3.76965805293425E-05</v>
+        <v>0.7073169575434416</v>
       </c>
       <c r="T7">
-        <v>3.76965805293425E-05</v>
+        <v>0.7073169575434415</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.384600333333333</v>
+        <v>16.93684666666667</v>
       </c>
       <c r="N8">
-        <v>4.153801</v>
+        <v>50.81054</v>
       </c>
       <c r="O8">
-        <v>0.01502900005108802</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="P8">
-        <v>0.01502900005108802</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="Q8">
-        <v>1784.086093343343</v>
+        <v>21823.47633150112</v>
       </c>
       <c r="R8">
-        <v>16056.77484009009</v>
+        <v>196411.2869835101</v>
       </c>
       <c r="S8">
-        <v>0.01397212315283149</v>
+        <v>0.1809226236537584</v>
       </c>
       <c r="T8">
-        <v>0.0139721231528315</v>
+        <v>0.1809226236537584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>66.21459833333334</v>
+        <v>0.08916600000000001</v>
       </c>
       <c r="N9">
-        <v>198.643795</v>
+        <v>0.267498</v>
       </c>
       <c r="O9">
-        <v>0.7187194584438009</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="P9">
-        <v>0.718719458443801</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="Q9">
-        <v>85318.87593759211</v>
+        <v>114.892230464858</v>
       </c>
       <c r="R9">
-        <v>767869.8834383289</v>
+        <v>1034.030074183722</v>
       </c>
       <c r="S9">
-        <v>0.6681773073110179</v>
+        <v>0.0009524882038674076</v>
       </c>
       <c r="T9">
-        <v>0.668177307311018</v>
+        <v>0.0009524882038674076</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,87 +1030,87 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1288.520629666667</v>
+        <v>0.115045</v>
       </c>
       <c r="H10">
-        <v>3865.561889000001</v>
+        <v>0.345135</v>
       </c>
       <c r="I10">
-        <v>0.9296774971944981</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J10">
-        <v>0.9296774971944981</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2096873333333333</v>
+        <v>5.325183666666667</v>
       </c>
       <c r="N10">
-        <v>0.629062</v>
+        <v>15.975551</v>
       </c>
       <c r="O10">
-        <v>0.002276029311499885</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="P10">
-        <v>0.002276029311499885</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="Q10">
-        <v>270.1864547797909</v>
+        <v>0.6126357549316668</v>
       </c>
       <c r="R10">
-        <v>2431.678093018118</v>
+        <v>5.513721794385</v>
       </c>
       <c r="S10">
-        <v>0.002115973233856529</v>
+        <v>5.078918978932172E-06</v>
       </c>
       <c r="T10">
-        <v>0.00211597323385653</v>
+        <v>5.078918978932171E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1288.520629666667</v>
+        <v>0.115045</v>
       </c>
       <c r="H11">
-        <v>3865.561889000001</v>
+        <v>0.345135</v>
       </c>
       <c r="I11">
-        <v>0.9296774971944981</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J11">
-        <v>0.9296774971944981</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.82732666666667</v>
+        <v>66.21459833333334</v>
       </c>
       <c r="N11">
-        <v>71.48198000000001</v>
+        <v>198.643795</v>
       </c>
       <c r="O11">
-        <v>0.2586312346383163</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="P11">
-        <v>0.2586312346383164</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="Q11">
-        <v>30702.00195980669</v>
+        <v>7.617658465258335</v>
       </c>
       <c r="R11">
-        <v>276318.0176382603</v>
+        <v>68.55892618732501</v>
       </c>
       <c r="S11">
-        <v>0.2404436389148729</v>
+        <v>6.315248472322562E-05</v>
       </c>
       <c r="T11">
-        <v>0.240443638914873</v>
+        <v>6.315248472322562E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1288.520629666667</v>
+        <v>0.115045</v>
       </c>
       <c r="H12">
-        <v>3865.561889000001</v>
+        <v>0.345135</v>
       </c>
       <c r="I12">
-        <v>0.9296774971944981</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J12">
-        <v>0.9296774971944981</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04322599999999999</v>
+        <v>16.93684666666667</v>
       </c>
       <c r="N12">
-        <v>0.129678</v>
+        <v>50.81054</v>
       </c>
       <c r="O12">
-        <v>0.000469192113109172</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="P12">
-        <v>0.0004691921131091722</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="Q12">
-        <v>55.69759273797133</v>
+        <v>1.948499524766667</v>
       </c>
       <c r="R12">
-        <v>501.278334641742</v>
+        <v>17.5364957229</v>
       </c>
       <c r="S12">
-        <v>0.0004361973494187329</v>
+        <v>1.615359720211167E-05</v>
       </c>
       <c r="T12">
-        <v>0.0004361973494187331</v>
+        <v>1.615359720211167E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1288.520629666667</v>
+        <v>0.115045</v>
       </c>
       <c r="H13">
-        <v>3865.561889000001</v>
+        <v>0.345135</v>
       </c>
       <c r="I13">
-        <v>0.9296774971944981</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J13">
-        <v>0.9296774971944981</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.4491346666666666</v>
+        <v>0.08916600000000001</v>
       </c>
       <c r="N13">
-        <v>1.347404</v>
+        <v>0.267498</v>
       </c>
       <c r="O13">
-        <v>0.004875085442185651</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="P13">
-        <v>0.004875085442185652</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="Q13">
-        <v>578.7192834984618</v>
+        <v>0.01025810247</v>
       </c>
       <c r="R13">
-        <v>5208.473551486156</v>
+        <v>0.09232292223000001</v>
       </c>
       <c r="S13">
-        <v>0.004532257232500489</v>
+        <v>8.504249205716899E-08</v>
       </c>
       <c r="T13">
-        <v>0.00453225723250049</v>
+        <v>8.504249205716899E-08</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9754353333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H14">
-        <v>2.926306</v>
+        <v>131.723966</v>
       </c>
       <c r="I14">
-        <v>0.0007037840594007478</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J14">
-        <v>0.0007037840594007477</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.384600333333333</v>
+        <v>5.325183666666667</v>
       </c>
       <c r="N14">
-        <v>4.153801</v>
+        <v>15.975551</v>
       </c>
       <c r="O14">
-        <v>0.01502900005108802</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="P14">
-        <v>0.01502900005108802</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="Q14">
-        <v>1.350588087678444</v>
+        <v>233.8181040839185</v>
       </c>
       <c r="R14">
-        <v>12.155292789106</v>
+        <v>2104.362936755266</v>
       </c>
       <c r="S14">
-        <v>1.057717066468877E-05</v>
+        <v>0.001938416419365223</v>
       </c>
       <c r="T14">
-        <v>1.057717066468877E-05</v>
+        <v>0.001938416419365223</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9754353333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H15">
-        <v>2.926306</v>
+        <v>131.723966</v>
       </c>
       <c r="I15">
-        <v>0.0007037840594007478</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J15">
-        <v>0.0007037840594007477</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>198.643795</v>
       </c>
       <c r="O15">
-        <v>0.7187194584438009</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="P15">
-        <v>0.718719458443801</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="Q15">
-        <v>64.58805879680779</v>
+        <v>2907.349833187886</v>
       </c>
       <c r="R15">
-        <v>581.29252917127</v>
+        <v>26166.14849869097</v>
       </c>
       <c r="S15">
-        <v>0.0005058232980338853</v>
+        <v>0.02410273009256579</v>
       </c>
       <c r="T15">
-        <v>0.0005058232980338853</v>
+        <v>0.02410273009256578</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9754353333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H16">
-        <v>2.926306</v>
+        <v>131.723966</v>
       </c>
       <c r="I16">
-        <v>0.0007037840594007478</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J16">
-        <v>0.0007037840594007477</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2096873333333333</v>
+        <v>16.93684666666667</v>
       </c>
       <c r="N16">
-        <v>0.629062</v>
+        <v>50.81054</v>
       </c>
       <c r="O16">
-        <v>0.002276029311499885</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="P16">
-        <v>0.002276029311499885</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="Q16">
-        <v>0.2045364338857778</v>
+        <v>743.6628714890713</v>
       </c>
       <c r="R16">
-        <v>1.840827904972</v>
+        <v>6692.965843401641</v>
       </c>
       <c r="S16">
-        <v>1.601833148162478E-06</v>
+        <v>0.006165169828121325</v>
       </c>
       <c r="T16">
-        <v>1.601833148162478E-06</v>
+        <v>0.006165169828121322</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9754353333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H17">
-        <v>2.926306</v>
+        <v>131.723966</v>
       </c>
       <c r="I17">
-        <v>0.0007037840594007478</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J17">
-        <v>0.0007037840594007477</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>23.82732666666667</v>
+        <v>0.08916600000000001</v>
       </c>
       <c r="N17">
-        <v>71.48198000000001</v>
+        <v>0.267498</v>
       </c>
       <c r="O17">
-        <v>0.2586312346383163</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="P17">
-        <v>0.2586312346383164</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="Q17">
-        <v>23.24201632954222</v>
+        <v>3.915099717452001</v>
       </c>
       <c r="R17">
-        <v>209.17814696588</v>
+        <v>35.23589745706801</v>
       </c>
       <c r="S17">
-        <v>0.0001820205402015815</v>
+        <v>3.245725392178076E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001820205402015816</v>
+        <v>3.245725392178075E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9754353333333333</v>
+        <v>0.693788</v>
       </c>
       <c r="H18">
-        <v>2.926306</v>
+        <v>2.081364</v>
       </c>
       <c r="I18">
-        <v>0.0007037840594007478</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J18">
-        <v>0.0007037840594007477</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.04322599999999999</v>
+        <v>5.325183666666667</v>
       </c>
       <c r="N18">
-        <v>0.129678</v>
+        <v>15.975551</v>
       </c>
       <c r="O18">
-        <v>0.000469192113109172</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="P18">
-        <v>0.0004691921131091722</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="Q18">
-        <v>0.04216416771866666</v>
+        <v>3.694548525729333</v>
       </c>
       <c r="R18">
-        <v>0.379477509468</v>
+        <v>33.250936731564</v>
       </c>
       <c r="S18">
-        <v>3.302099300027879E-07</v>
+        <v>3.062882385636397E-05</v>
       </c>
       <c r="T18">
-        <v>3.30209930002788E-07</v>
+        <v>3.062882385636397E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9754353333333333</v>
+        <v>0.693788</v>
       </c>
       <c r="H19">
-        <v>2.926306</v>
+        <v>2.081364</v>
       </c>
       <c r="I19">
-        <v>0.0007037840594007478</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J19">
-        <v>0.0007037840594007477</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,43 +1615,43 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4491346666666666</v>
+        <v>66.21459833333334</v>
       </c>
       <c r="N19">
-        <v>1.347404</v>
+        <v>198.643795</v>
       </c>
       <c r="O19">
-        <v>0.004875085442185651</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="P19">
-        <v>0.004875085442185652</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="Q19">
-        <v>0.4381018232915555</v>
+        <v>45.93889374848667</v>
       </c>
       <c r="R19">
-        <v>3.942916409623999</v>
+        <v>413.45004373638</v>
       </c>
       <c r="S19">
-        <v>3.431007422426907E-06</v>
+        <v>0.000380846069548066</v>
       </c>
       <c r="T19">
-        <v>3.431007422426907E-06</v>
+        <v>0.0003808460695480659</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>83.08150333333333</v>
+        <v>0.693788</v>
       </c>
       <c r="H20">
-        <v>249.24451</v>
+        <v>2.081364</v>
       </c>
       <c r="I20">
-        <v>0.05994394059648932</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J20">
-        <v>0.05994394059648932</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.384600333333333</v>
+        <v>16.93684666666667</v>
       </c>
       <c r="N20">
-        <v>4.153801</v>
+        <v>50.81054</v>
       </c>
       <c r="O20">
-        <v>0.01502900005108802</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="P20">
-        <v>0.01502900005108802</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="Q20">
-        <v>115.0346772091678</v>
+        <v>11.75058097517333</v>
       </c>
       <c r="R20">
-        <v>1035.31209488251</v>
+        <v>105.75522877656</v>
       </c>
       <c r="S20">
-        <v>0.0009008974862870551</v>
+        <v>9.741554952982442E-05</v>
       </c>
       <c r="T20">
-        <v>0.0009008974862870553</v>
+        <v>9.741554952982441E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>83.08150333333333</v>
+        <v>0.693788</v>
       </c>
       <c r="H21">
-        <v>249.24451</v>
+        <v>2.081364</v>
       </c>
       <c r="I21">
-        <v>0.05994394059648932</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J21">
-        <v>0.05994394059648932</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>66.21459833333334</v>
+        <v>0.08916600000000001</v>
       </c>
       <c r="N21">
-        <v>198.643795</v>
+        <v>0.267498</v>
       </c>
       <c r="O21">
-        <v>0.7187194584438009</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="P21">
-        <v>0.718719458443801</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="Q21">
-        <v>5501.208372146161</v>
+        <v>0.061862300808</v>
       </c>
       <c r="R21">
-        <v>49510.87534931545</v>
+        <v>0.556760707272</v>
       </c>
       <c r="S21">
-        <v>0.04308287652249618</v>
+        <v>5.128554954961898E-07</v>
       </c>
       <c r="T21">
-        <v>0.04308287652249618</v>
+        <v>5.128554954961898E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>83.08150333333333</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H22">
-        <v>249.24451</v>
+        <v>0.477931</v>
       </c>
       <c r="I22">
-        <v>0.05994394059648932</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J22">
-        <v>0.05994394059648932</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2096873333333333</v>
+        <v>5.325183666666667</v>
       </c>
       <c r="N22">
-        <v>0.629062</v>
+        <v>15.975551</v>
       </c>
       <c r="O22">
-        <v>0.002276029311499885</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="P22">
-        <v>0.002276029311499885</v>
+        <v>0.06012686598374638</v>
       </c>
       <c r="Q22">
-        <v>17.42113888329111</v>
+        <v>0.8483567849978889</v>
       </c>
       <c r="R22">
-        <v>156.79024994962</v>
+        <v>7.635211064980999</v>
       </c>
       <c r="S22">
-        <v>0.0001364341658444176</v>
+        <v>7.033111178292645E-06</v>
       </c>
       <c r="T22">
-        <v>0.0001364341658444176</v>
+        <v>7.033111178292643E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>83.08150333333333</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H23">
-        <v>249.24451</v>
+        <v>0.477931</v>
       </c>
       <c r="I23">
-        <v>0.05994394059648932</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J23">
-        <v>0.05994394059648932</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,43 +1863,43 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.82732666666667</v>
+        <v>66.21459833333334</v>
       </c>
       <c r="N23">
-        <v>71.48198000000001</v>
+        <v>198.643795</v>
       </c>
       <c r="O23">
-        <v>0.2586312346383163</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="P23">
-        <v>0.2586312346383164</v>
+        <v>0.7476317305404859</v>
       </c>
       <c r="Q23">
-        <v>1979.610119881089</v>
+        <v>10.54866973201611</v>
       </c>
       <c r="R23">
-        <v>17816.4910789298</v>
+        <v>94.938027588145</v>
       </c>
       <c r="S23">
-        <v>0.01550337536555592</v>
+        <v>8.745137461067683E-05</v>
       </c>
       <c r="T23">
-        <v>0.01550337536555593</v>
+        <v>8.74513746106768E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>83.08150333333333</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H24">
-        <v>249.24451</v>
+        <v>0.477931</v>
       </c>
       <c r="I24">
-        <v>0.05994394059648932</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J24">
-        <v>0.05994394059648932</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.04322599999999999</v>
+        <v>16.93684666666667</v>
       </c>
       <c r="N24">
-        <v>0.129678</v>
+        <v>50.81054</v>
       </c>
       <c r="O24">
-        <v>0.000469192113109172</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="P24">
-        <v>0.0004691921131091722</v>
+        <v>0.1912346265328679</v>
       </c>
       <c r="Q24">
-        <v>3.591281063086666</v>
+        <v>2.698214688082222</v>
       </c>
       <c r="R24">
-        <v>32.32152956778</v>
+        <v>24.28393219274</v>
       </c>
       <c r="S24">
-        <v>2.81252241565575E-05</v>
+        <v>2.236894219480039E-05</v>
       </c>
       <c r="T24">
-        <v>2.812522415655752E-05</v>
+        <v>2.236894219480039E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,790 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>83.08150333333333</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H25">
-        <v>249.24451</v>
+        <v>0.477931</v>
       </c>
       <c r="I25">
-        <v>0.05994394059648932</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J25">
-        <v>0.05994394059648932</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.4491346666666666</v>
+        <v>0.08916600000000001</v>
       </c>
       <c r="N25">
-        <v>1.347404</v>
+        <v>0.267498</v>
       </c>
       <c r="O25">
-        <v>0.004875085442185651</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="P25">
-        <v>0.004875085442185652</v>
+        <v>0.001006776942899822</v>
       </c>
       <c r="Q25">
-        <v>37.31478330578221</v>
+        <v>0.014205065182</v>
       </c>
       <c r="R25">
-        <v>335.8330497520399</v>
+        <v>0.127845586638</v>
       </c>
       <c r="S25">
-        <v>0.0002922318321491865</v>
+        <v>1.177638989710543E-07</v>
       </c>
       <c r="T25">
-        <v>0.0002922318321491866</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.4452746666666667</v>
-      </c>
-      <c r="H26">
-        <v>1.335824</v>
-      </c>
-      <c r="I26">
-        <v>0.0003212690803234332</v>
-      </c>
-      <c r="J26">
-        <v>0.0003212690803234332</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.384600333333333</v>
-      </c>
-      <c r="N26">
-        <v>4.153801</v>
-      </c>
-      <c r="O26">
-        <v>0.01502900005108802</v>
-      </c>
-      <c r="P26">
-        <v>0.01502900005108802</v>
-      </c>
-      <c r="Q26">
-        <v>0.6165274518915554</v>
-      </c>
-      <c r="R26">
-        <v>5.548747067023999</v>
-      </c>
-      <c r="S26">
-        <v>4.828353024593878E-06</v>
-      </c>
-      <c r="T26">
-        <v>4.828353024593879E-06</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.4452746666666667</v>
-      </c>
-      <c r="H27">
-        <v>1.335824</v>
-      </c>
-      <c r="I27">
-        <v>0.0003212690803234332</v>
-      </c>
-      <c r="J27">
-        <v>0.0003212690803234332</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>66.21459833333334</v>
-      </c>
-      <c r="N27">
-        <v>198.643795</v>
-      </c>
-      <c r="O27">
-        <v>0.7187194584438009</v>
-      </c>
-      <c r="P27">
-        <v>0.718719458443801</v>
-      </c>
-      <c r="Q27">
-        <v>29.48368320134222</v>
-      </c>
-      <c r="R27">
-        <v>265.35314881208</v>
-      </c>
-      <c r="S27">
-        <v>0.0002309023394247959</v>
-      </c>
-      <c r="T27">
-        <v>0.0002309023394247959</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.4452746666666667</v>
-      </c>
-      <c r="H28">
-        <v>1.335824</v>
-      </c>
-      <c r="I28">
-        <v>0.0003212690803234332</v>
-      </c>
-      <c r="J28">
-        <v>0.0003212690803234332</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.2096873333333333</v>
-      </c>
-      <c r="N28">
-        <v>0.629062</v>
-      </c>
-      <c r="O28">
-        <v>0.002276029311499885</v>
-      </c>
-      <c r="P28">
-        <v>0.002276029311499885</v>
-      </c>
-      <c r="Q28">
-        <v>0.09336845745422222</v>
-      </c>
-      <c r="R28">
-        <v>0.8403161170879999</v>
-      </c>
-      <c r="S28">
-        <v>7.312178436947448E-07</v>
-      </c>
-      <c r="T28">
-        <v>7.312178436947449E-07</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.4452746666666667</v>
-      </c>
-      <c r="H29">
-        <v>1.335824</v>
-      </c>
-      <c r="I29">
-        <v>0.0003212690803234332</v>
-      </c>
-      <c r="J29">
-        <v>0.0003212690803234332</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>23.82732666666667</v>
-      </c>
-      <c r="N29">
-        <v>71.48198000000001</v>
-      </c>
-      <c r="O29">
-        <v>0.2586312346383163</v>
-      </c>
-      <c r="P29">
-        <v>0.2586312346383164</v>
-      </c>
-      <c r="Q29">
-        <v>10.60970493905778</v>
-      </c>
-      <c r="R29">
-        <v>95.48734445152</v>
-      </c>
-      <c r="S29">
-        <v>8.309021889516593E-05</v>
-      </c>
-      <c r="T29">
-        <v>8.309021889516596E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.4452746666666667</v>
-      </c>
-      <c r="H30">
-        <v>1.335824</v>
-      </c>
-      <c r="I30">
-        <v>0.0003212690803234332</v>
-      </c>
-      <c r="J30">
-        <v>0.0003212690803234332</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.04322599999999999</v>
-      </c>
-      <c r="N30">
-        <v>0.129678</v>
-      </c>
-      <c r="O30">
-        <v>0.000469192113109172</v>
-      </c>
-      <c r="P30">
-        <v>0.0004691921131091722</v>
-      </c>
-      <c r="Q30">
-        <v>0.01924744274133333</v>
-      </c>
-      <c r="R30">
-        <v>0.173226984672</v>
-      </c>
-      <c r="S30">
-        <v>1.507369186735919E-07</v>
-      </c>
-      <c r="T30">
-        <v>1.50736918673592E-07</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.4452746666666667</v>
-      </c>
-      <c r="H31">
-        <v>1.335824</v>
-      </c>
-      <c r="I31">
-        <v>0.0003212690803234332</v>
-      </c>
-      <c r="J31">
-        <v>0.0003212690803234332</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.4491346666666666</v>
-      </c>
-      <c r="N31">
-        <v>1.347404</v>
-      </c>
-      <c r="O31">
-        <v>0.004875085442185651</v>
-      </c>
-      <c r="P31">
-        <v>0.004875085442185652</v>
-      </c>
-      <c r="Q31">
-        <v>0.1999882889884444</v>
-      </c>
-      <c r="R31">
-        <v>1.799894600896</v>
-      </c>
-      <c r="S31">
-        <v>1.566214216509142E-06</v>
-      </c>
-      <c r="T31">
-        <v>1.566214216509142E-06</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>2.246702</v>
-      </c>
-      <c r="H32">
-        <v>6.740105999999999</v>
-      </c>
-      <c r="I32">
-        <v>0.001621012690221506</v>
-      </c>
-      <c r="J32">
-        <v>0.001621012690221506</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1.384600333333333</v>
-      </c>
-      <c r="N32">
-        <v>4.153801</v>
-      </c>
-      <c r="O32">
-        <v>0.01502900005108802</v>
-      </c>
-      <c r="P32">
-        <v>0.01502900005108802</v>
-      </c>
-      <c r="Q32">
-        <v>3.110784338100666</v>
-      </c>
-      <c r="R32">
-        <v>27.99705904290599</v>
-      </c>
-      <c r="S32">
-        <v>2.436219980415335E-05</v>
-      </c>
-      <c r="T32">
-        <v>2.436219980415335E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>2.246702</v>
-      </c>
-      <c r="H33">
-        <v>6.740105999999999</v>
-      </c>
-      <c r="I33">
-        <v>0.001621012690221506</v>
-      </c>
-      <c r="J33">
-        <v>0.001621012690221506</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>66.21459833333334</v>
-      </c>
-      <c r="N33">
-        <v>198.643795</v>
-      </c>
-      <c r="O33">
-        <v>0.7187194584438009</v>
-      </c>
-      <c r="P33">
-        <v>0.718719458443801</v>
-      </c>
-      <c r="Q33">
-        <v>148.7644705046966</v>
-      </c>
-      <c r="R33">
-        <v>1338.88023454227</v>
-      </c>
-      <c r="S33">
-        <v>0.00116505336284653</v>
-      </c>
-      <c r="T33">
-        <v>0.00116505336284653</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>2.246702</v>
-      </c>
-      <c r="H34">
-        <v>6.740105999999999</v>
-      </c>
-      <c r="I34">
-        <v>0.001621012690221506</v>
-      </c>
-      <c r="J34">
-        <v>0.001621012690221506</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.2096873333333333</v>
-      </c>
-      <c r="N34">
-        <v>0.629062</v>
-      </c>
-      <c r="O34">
-        <v>0.002276029311499885</v>
-      </c>
-      <c r="P34">
-        <v>0.002276029311499885</v>
-      </c>
-      <c r="Q34">
-        <v>0.4711049511746666</v>
-      </c>
-      <c r="R34">
-        <v>4.239944560572</v>
-      </c>
-      <c r="S34">
-        <v>3.689472397257431E-06</v>
-      </c>
-      <c r="T34">
-        <v>3.689472397257432E-06</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>2.246702</v>
-      </c>
-      <c r="H35">
-        <v>6.740105999999999</v>
-      </c>
-      <c r="I35">
-        <v>0.001621012690221506</v>
-      </c>
-      <c r="J35">
-        <v>0.001621012690221506</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>23.82732666666667</v>
-      </c>
-      <c r="N35">
-        <v>71.48198000000001</v>
-      </c>
-      <c r="O35">
-        <v>0.2586312346383163</v>
-      </c>
-      <c r="P35">
-        <v>0.2586312346383164</v>
-      </c>
-      <c r="Q35">
-        <v>53.53290247665333</v>
-      </c>
-      <c r="R35">
-        <v>481.79612228988</v>
-      </c>
-      <c r="S35">
-        <v>0.0004192445134363668</v>
-      </c>
-      <c r="T35">
-        <v>0.0004192445134363669</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>2.246702</v>
-      </c>
-      <c r="H36">
-        <v>6.740105999999999</v>
-      </c>
-      <c r="I36">
-        <v>0.001621012690221506</v>
-      </c>
-      <c r="J36">
-        <v>0.001621012690221506</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M36">
-        <v>0.04322599999999999</v>
-      </c>
-      <c r="N36">
-        <v>0.129678</v>
-      </c>
-      <c r="O36">
-        <v>0.000469192113109172</v>
-      </c>
-      <c r="P36">
-        <v>0.0004691921131091722</v>
-      </c>
-      <c r="Q36">
-        <v>0.09711594065199997</v>
-      </c>
-      <c r="R36">
-        <v>0.8740434658679997</v>
-      </c>
-      <c r="S36">
-        <v>7.605663695018123E-07</v>
-      </c>
-      <c r="T36">
-        <v>7.605663695018125E-07</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>2.246702</v>
-      </c>
-      <c r="H37">
-        <v>6.740105999999999</v>
-      </c>
-      <c r="I37">
-        <v>0.001621012690221506</v>
-      </c>
-      <c r="J37">
-        <v>0.001621012690221506</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.4491346666666666</v>
-      </c>
-      <c r="N37">
-        <v>1.347404</v>
-      </c>
-      <c r="O37">
-        <v>0.004875085442185651</v>
-      </c>
-      <c r="P37">
-        <v>0.004875085442185652</v>
-      </c>
-      <c r="Q37">
-        <v>1.009071753869333</v>
-      </c>
-      <c r="R37">
-        <v>9.081645784823998</v>
-      </c>
-      <c r="S37">
-        <v>7.902575367697065E-06</v>
-      </c>
-      <c r="T37">
-        <v>7.902575367697066E-06</v>
+        <v>1.177638989710543E-07</v>
       </c>
     </row>
   </sheetData>
